--- a/analysis/app_responses.xlsx
+++ b/analysis/app_responses.xlsx
@@ -203,8 +203,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:T13" insertRow="1" totalsRowShown="0">
-  <x:autoFilter ref="A1:T13"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:T15" insertRow="1" totalsRowShown="0">
+  <x:autoFilter ref="A1:T15"/>
   <x:tableColumns count="20">
     <x:tableColumn id="1" uniqueName="1" name="ID" dataDxfId="0"/>
     <x:tableColumn id="2" uniqueName="2" name="Start time" dataDxfId="3"/>
@@ -1268,11 +1268,119 @@
         <x:v>24</x:v>
       </x:c>
     </x:row>
+    <x:row r="14" hidden="0">
+      <x:c r="A14">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B14" s="2">
+        <x:v>45686.5939814815</x:v>
+      </x:c>
+      <x:c r="C14" s="2">
+        <x:v>45686.6329050926</x:v>
+      </x:c>
+      <x:c r="D14" s="10" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E14" s="10" t="s"/>
+      <x:c r="F14" s="2"/>
+      <x:c r="G14" s="10" t="s"/>
+      <x:c r="H14" s="10" t="s"/>
+      <x:c r="I14" s="7" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="J14" s="7" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="K14" s="7" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="L14" s="7" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M14" s="7" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N14" s="7" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="O14" s="7" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="P14" s="7" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="Q14" s="7" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="R14" s="7" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="S14" s="7" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="T14" s="7" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" hidden="0">
+      <x:c r="A15">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B15" s="2">
+        <x:v>45686.832337963</x:v>
+      </x:c>
+      <x:c r="C15" s="2">
+        <x:v>45686.8411111111</x:v>
+      </x:c>
+      <x:c r="D15" s="10" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E15" s="10" t="s"/>
+      <x:c r="F15" s="2"/>
+      <x:c r="G15" s="10" t="s"/>
+      <x:c r="H15" s="10" t="s"/>
+      <x:c r="I15" s="7" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J15" s="7" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="K15" s="7" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="L15" s="7" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M15" s="7" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N15" s="7" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="O15" s="7" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="P15" s="7" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="Q15" s="7" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="R15" s="7" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="S15" s="7" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="T15" s="7" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <x:tableParts count="1">
-    <x:tablePart r:id="Re6591e71beb845a5"/>
+    <x:tablePart r:id="Rb5cc241ad1924afa"/>
   </x:tableParts>
 </x:worksheet>
 </file>